--- a/Teste2.xlsx
+++ b/Teste2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Arquivo</x:t>
   </x:si>
@@ -34,130 +34,133 @@
     <x:t>UF</x:t>
   </x:si>
   <x:si>
-    <x:t>31211292660604017662550500000170671478739470.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\31211292660604017662550500000170671478739470.xml</x:t>
+    <x:t>31211092660604015457550760000146171184325883.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\31211092660604015457550760000146171184325883.xml</x:t>
   </x:si>
   <x:si>
     <x:t>False</x:t>
   </x:si>
   <x:si>
-    <x:t>31211292660604017662550500000170691908499198.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\31211292660604017662550500000170691908499198.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31211292660604017662550500000171131478426760.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\31211292660604017662550500000171131478426760.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31211292660604017662550500000171731944724056.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\31211292660604017662550500000171731944724056.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35210904400329000109570010000586741000586744-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35210904400329000109570010000586741000586744-ret-cons-cte.xml</x:t>
+    <x:t>31211092660604015457550760000146221569723315.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\31211092660604015457550760000146221569723315.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31211092660604015457550760000146311031134436.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\31211092660604015457550760000146311031134436.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35210833931486000564550040000805401453515100.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35210833931486000564550040000805401453515100.xml</x:t>
   </x:si>
   <x:si>
     <x:t>True</x:t>
   </x:si>
   <x:si>
-    <x:t>35211004400329000109570010000591261000591268-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211004400329000109570010000591261000591268-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605331000605338-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211204400329000109570010000605331000605338-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605341000605343-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211204400329000109570010000605341000605343-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605431000605431-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211204400329000109570010000605431000605431-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605821000605820-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211204400329000109570010000605821000605820-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605931000605930-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211204400329000109570010000605931000605930-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605941000605945-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211204400329000109570010000605941000605945-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605951000605950-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211204400329000109570010000605951000605950-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605961000605966-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211204400329000109570010000605961000605966-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605971000605971-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211204400329000109570010000605971000605971-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002833221002833221-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211250505924000118570010002833221002833221-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002833251002833258-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211250505924000118570010002833251002833258-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002833261002833263-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211250505924000118570010002833261002833263-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002833421002833429-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211250505924000118570010002833421002833429-ret-cons-cte.xml</x:t>
+    <x:t>35210850505924000118570010002698471002698478-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35210850505924000118570010002698471002698478-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35210850505924000118570010002729211002729218-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35210850505924000118570010002729211002729218-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35210950505924000118570010002738851002738853-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35210950505924000118570010002738851002738853-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211050505924000118570010002782611002782613-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211050505924000118570010002782611002782613-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211050505924000118570010002782621002782629-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211050505924000118570010002782621002782629-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211050505924000118570010002782671002782676-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211050505924000118570010002782671002782676-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211050505924000118570010002785081002785085-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211050505924000118570010002785081002785085-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211204400329000109570010000605251000605255-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211204400329000109570010000605251000605255-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211204400329000109570010000605261000605260-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211204400329000109570010000605261000605260-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829241002829243-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829241002829243-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829251002829259-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829251002829259-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829261002829264-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829261002829264-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829291002829290-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829291002829290-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829411002829414-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829411002829414-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829461002829461-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829461002829461-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52211088305859002101550230000027711001975667.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\52211088305859002101550230000027711001975667.xml</x:t>
   </x:si>
   <x:si>
     <x:t>35211250505924000118570010002833461002833460-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\RODOTAC\35211250505924000118570010002833461002833460-ret-cons-cte.xml</x:t>
   </x:si>
   <x:si>
     <x:t>C:\Users\Stars\Desktop\RODOTAC\Operações Subcontratadas\35211250505924000118570010002833461002833460-ret-cons-cte.xml</x:t>
@@ -614,27 +617,27 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -648,13 +651,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -668,13 +671,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -688,13 +691,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -708,13 +711,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -728,13 +731,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -748,13 +751,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -768,13 +771,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -788,13 +791,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
@@ -808,13 +811,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -828,13 +831,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -848,13 +851,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -868,13 +871,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
@@ -888,13 +891,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -908,13 +911,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -934,15 +937,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>8</x:v>
@@ -954,7 +957,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Teste2.xlsx
+++ b/Teste2.xlsx
@@ -34,130 +34,130 @@
     <x:t>UF</x:t>
   </x:si>
   <x:si>
+    <x:t>35210850505924000118570010002698471002698478-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35210850505924000118570010002698471002698478-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>False</x:t>
+  </x:si>
+  <x:si>
+    <x:t>True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35210850505924000118570010002729211002729218-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35210850505924000118570010002729211002729218-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211050505924000118570010002782611002782613-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35211050505924000118570010002782611002782613-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211050505924000118570010002782621002782629-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35211050505924000118570010002782621002782629-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211050505924000118570010002782671002782676-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35211050505924000118570010002782671002782676-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829241002829243-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35211250505924000118570010002829241002829243-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829251002829259-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35211250505924000118570010002829251002829259-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829261002829264-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35211250505924000118570010002829261002829264-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829291002829290-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35211250505924000118570010002829291002829290-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829411002829414-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35211250505924000118570010002829411002829414-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211250505924000118570010002829461002829461-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Padrão\35211250505924000118570010002829461002829461-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35210950505924000118570010002738851002738853-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Separado por CFOP_encontrado\35210950505924000118570010002738851002738853-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35210833931486000564550040000805401453515100.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Separado por CNPJ_divergente\35210833931486000564550040000805401453515100.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211204400329000109570010000605251000605255-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Separado por CNPJ_divergente\35211204400329000109570010000605251000605255-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35211204400329000109570010000605261000605260-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Separado por CNPJ_divergente\35211204400329000109570010000605261000605260-ret-cons-cte.xml</x:t>
+  </x:si>
+  <x:si>
     <x:t>31211092660604015457550760000146171184325883.xml</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\31211092660604015457550760000146171184325883.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>False</x:t>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Separado por CNPJ_divergente UF_divergente\31211092660604015457550760000146171184325883.xml</x:t>
   </x:si>
   <x:si>
     <x:t>31211092660604015457550760000146221569723315.xml</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\31211092660604015457550760000146221569723315.xml</x:t>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Separado por CNPJ_divergente UF_divergente\31211092660604015457550760000146221569723315.xml</x:t>
   </x:si>
   <x:si>
     <x:t>31211092660604015457550760000146311031134436.xml</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\31211092660604015457550760000146311031134436.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35210833931486000564550040000805401453515100.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35210833931486000564550040000805401453515100.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35210850505924000118570010002698471002698478-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35210850505924000118570010002698471002698478-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35210850505924000118570010002729211002729218-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35210850505924000118570010002729211002729218-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35210950505924000118570010002738851002738853-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35210950505924000118570010002738851002738853-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211050505924000118570010002782611002782613-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211050505924000118570010002782611002782613-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211050505924000118570010002782621002782629-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211050505924000118570010002782621002782629-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211050505924000118570010002782671002782676-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211050505924000118570010002782671002782676-ret-cons-cte.xml</x:t>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Separado por CNPJ_divergente UF_divergente\31211092660604015457550760000146311031134436.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52211088305859002101550230000027711001975667.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Separado por CNPJ_divergente UF_divergente\52211088305859002101550230000027711001975667.xml</x:t>
   </x:si>
   <x:si>
     <x:t>35211050505924000118570010002785081002785085-ret-cons-cte.xml</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211050505924000118570010002785081002785085-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605251000605255-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211204400329000109570010000605251000605255-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211204400329000109570010000605261000605260-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211204400329000109570010000605261000605260-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002829241002829243-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829241002829243-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002829251002829259-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829251002829259-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002829261002829264-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829261002829264-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002829291002829290-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829291002829290-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002829411002829414-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829411002829414-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35211250505924000118570010002829461002829461-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\35211250505924000118570010002829461002829461-ret-cons-cte.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52211088305859002101550230000027711001975667.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\Stars\Desktop\TRANSMOB\52211088305859002101550230000027711001975667.xml</x:t>
+    <x:t>C:\Users\Stars\Desktop\TRANSMOB\Separado por UF_divergente\35211050505924000118570010002785081002785085-ret-cons-cte.xml</x:t>
   </x:si>
   <x:si>
     <x:t>35211250505924000118570010002833461002833460-ret-cons-cte.xml</x:t>
@@ -551,73 +551,73 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -631,13 +631,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -651,13 +651,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -671,13 +671,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -691,13 +691,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -711,13 +711,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -731,13 +731,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -751,13 +751,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -771,13 +771,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -797,7 +797,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
@@ -811,13 +811,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -831,13 +831,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -851,13 +851,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -871,13 +871,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
@@ -891,13 +891,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -911,13 +911,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -931,7 +931,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>8</x:v>
@@ -957,7 +957,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
